--- a/tests/vlaanderen/reference/tussenresultaten/groepenverdeling/2023/Verdeling_over_groepen_Beroepsbevolking_alleen_autobezit.xlsx
+++ b/tests/vlaanderen/reference/tussenresultaten/groepenverdeling/2023/Verdeling_over_groepen_Beroepsbevolking_alleen_autobezit.xlsx
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0076</v>
+        <v>0.007508982035928145</v>
       </c>
       <c r="E2">
-        <v>0.1214</v>
+        <v>0.1213952095808383</v>
       </c>
       <c r="F2">
-        <v>0.0486</v>
+        <v>0.04855808383233533</v>
       </c>
       <c r="G2">
-        <v>0.0607</v>
+        <v>0.06069760479041917</v>
       </c>
       <c r="H2">
-        <v>0.0121</v>
+        <v>0.01213952095808383</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -769,25 +769,25 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.0049</v>
+        <v>0.004855808383233534</v>
       </c>
       <c r="R2">
-        <v>0.0001</v>
+        <v>0.0001501796407185629</v>
       </c>
       <c r="S2">
-        <v>0.0074</v>
+        <v>0.007358802395209582</v>
       </c>
       <c r="T2">
-        <v>0.1189</v>
+        <v>0.1189673053892216</v>
       </c>
       <c r="U2">
-        <v>0.0476</v>
+        <v>0.04758692215568863</v>
       </c>
       <c r="V2">
-        <v>0.0595</v>
+        <v>0.05948365269461079</v>
       </c>
       <c r="W2">
-        <v>0.0119</v>
+        <v>0.01189673053892216</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -814,25 +814,25 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.0425</v>
+        <v>0.04248832335329341</v>
       </c>
       <c r="AG2">
-        <v>0.0013</v>
+        <v>0.001314071856287425</v>
       </c>
       <c r="AH2">
-        <v>0.0062</v>
+        <v>0.006194910179640719</v>
       </c>
       <c r="AI2">
-        <v>0.1002</v>
+        <v>0.1001510479041916</v>
       </c>
       <c r="AJ2">
-        <v>0.0401</v>
+        <v>0.04006041916167665</v>
       </c>
       <c r="AK2">
-        <v>0.0501</v>
+        <v>0.05007552395209582</v>
       </c>
       <c r="AL2">
-        <v>0.01</v>
+        <v>0.01001510479041916</v>
       </c>
       <c r="AM2">
         <v>0</v>
@@ -859,25 +859,25 @@
         <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.0664</v>
+        <v>0.06644790419161677</v>
       </c>
       <c r="AV2">
-        <v>0.002</v>
+        <v>0.002055089820359281</v>
       </c>
       <c r="AW2">
-        <v>0.0054</v>
+        <v>0.005417964071856287</v>
       </c>
       <c r="AX2">
-        <v>0.0876</v>
+        <v>0.08759041916167663</v>
       </c>
       <c r="AY2">
-        <v>0.0351</v>
+        <v>0.03503616766467066</v>
       </c>
       <c r="AZ2">
-        <v>0.0438</v>
+        <v>0.04379520958083832</v>
       </c>
       <c r="BA2">
-        <v>0.008699999999999999</v>
+        <v>0.008759041916167665</v>
       </c>
       <c r="BB2">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0074</v>
+        <v>0.007484725050916496</v>
       </c>
       <c r="E3">
-        <v>0.121</v>
+        <v>0.1210030549898167</v>
       </c>
       <c r="F3">
-        <v>0.0484</v>
+        <v>0.04840122199592668</v>
       </c>
       <c r="G3">
-        <v>0.0605</v>
+        <v>0.06050152749490834</v>
       </c>
       <c r="H3">
-        <v>0.0121</v>
+        <v>0.01210030549898167</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -954,25 +954,25 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.0049</v>
+        <v>0.004859877800407332</v>
       </c>
       <c r="R3">
-        <v>0.0001</v>
+        <v>0.0001503054989816701</v>
       </c>
       <c r="S3">
-        <v>0.0074</v>
+        <v>0.007364969450101832</v>
       </c>
       <c r="T3">
-        <v>0.1191</v>
+        <v>0.1190670061099796</v>
       </c>
       <c r="U3">
-        <v>0.0476</v>
+        <v>0.04762680244399186</v>
       </c>
       <c r="V3">
-        <v>0.0595</v>
+        <v>0.05953350305498981</v>
       </c>
       <c r="W3">
-        <v>0.0119</v>
+        <v>0.01190670061099796</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -999,25 +999,25 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.0424</v>
+        <v>0.04235106924643584</v>
       </c>
       <c r="AG3">
-        <v>0.0013</v>
+        <v>0.001309826883910387</v>
       </c>
       <c r="AH3">
-        <v>0.0062</v>
+        <v>0.006174898167006109</v>
       </c>
       <c r="AI3">
-        <v>0.0998</v>
+        <v>0.09982752036659878</v>
       </c>
       <c r="AJ3">
-        <v>0.0399</v>
+        <v>0.03993100814663951</v>
       </c>
       <c r="AK3">
-        <v>0.0499</v>
+        <v>0.04991376018329939</v>
       </c>
       <c r="AL3">
-        <v>0.01</v>
+        <v>0.009982752036659878</v>
       </c>
       <c r="AM3">
         <v>0</v>
@@ -1044,25 +1044,25 @@
         <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.0669</v>
+        <v>0.06682331975560084</v>
       </c>
       <c r="AV3">
-        <v>0.002</v>
+        <v>0.002066700610997964</v>
       </c>
       <c r="AW3">
-        <v>0.0054</v>
+        <v>0.00544857433808554</v>
       </c>
       <c r="AX3">
-        <v>0.0881</v>
+        <v>0.08808528513238287</v>
       </c>
       <c r="AY3">
-        <v>0.0352</v>
+        <v>0.03523411405295315</v>
       </c>
       <c r="AZ3">
-        <v>0.044</v>
+        <v>0.04404264256619143</v>
       </c>
       <c r="BA3">
-        <v>0.0089</v>
+        <v>0.008808528513238288</v>
       </c>
       <c r="BB3">
         <v>0</v>
@@ -1100,19 +1100,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0075</v>
+        <v>0.007484210526315791</v>
       </c>
       <c r="E4">
-        <v>0.121</v>
+        <v>0.1209947368421053</v>
       </c>
       <c r="F4">
-        <v>0.0483</v>
+        <v>0.04839789473684211</v>
       </c>
       <c r="G4">
-        <v>0.0605</v>
+        <v>0.06049736842105265</v>
       </c>
       <c r="H4">
-        <v>0.0122</v>
+        <v>0.01209947368421053</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1139,25 +1139,25 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0049</v>
+        <v>0.004860210526315788</v>
       </c>
       <c r="R4">
-        <v>0.0001</v>
+        <v>0.0001503157894736842</v>
       </c>
       <c r="S4">
-        <v>0.0074</v>
+        <v>0.007365473684210526</v>
       </c>
       <c r="T4">
-        <v>0.1191</v>
+        <v>0.1190751578947368</v>
       </c>
       <c r="U4">
-        <v>0.0476</v>
+        <v>0.04763006315789474</v>
       </c>
       <c r="V4">
-        <v>0.0595</v>
+        <v>0.05953757894736842</v>
       </c>
       <c r="W4">
-        <v>0.0119</v>
+        <v>0.01190751578947368</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -1184,25 +1184,25 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.0424</v>
+        <v>0.04234815789473684</v>
       </c>
       <c r="AG4">
-        <v>0.0013</v>
+        <v>0.001309736842105263</v>
       </c>
       <c r="AH4">
-        <v>0.0062</v>
+        <v>0.006174473684210526</v>
       </c>
       <c r="AI4">
-        <v>0.0998</v>
+        <v>0.09982065789473685</v>
       </c>
       <c r="AJ4">
-        <v>0.0399</v>
+        <v>0.03992826315789474</v>
       </c>
       <c r="AK4">
-        <v>0.0499</v>
+        <v>0.04991032894736842</v>
       </c>
       <c r="AL4">
-        <v>0.01</v>
+        <v>0.009982065789473684</v>
       </c>
       <c r="AM4">
         <v>0</v>
@@ -1229,25 +1229,25 @@
         <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.0668</v>
+        <v>0.06682789473684211</v>
       </c>
       <c r="AV4">
-        <v>0.0021</v>
+        <v>0.002066842105263158</v>
       </c>
       <c r="AW4">
-        <v>0.0055</v>
+        <v>0.005448947368421053</v>
       </c>
       <c r="AX4">
-        <v>0.0881</v>
+        <v>0.0880913157894737</v>
       </c>
       <c r="AY4">
-        <v>0.0353</v>
+        <v>0.03523652631578947</v>
       </c>
       <c r="AZ4">
-        <v>0.044</v>
+        <v>0.04404565789473685</v>
       </c>
       <c r="BA4">
-        <v>0.008800000000000001</v>
+        <v>0.008809131578947367</v>
       </c>
       <c r="BB4">
         <v>0</v>
@@ -1285,19 +1285,19 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0074</v>
+        <v>0.007476780185758513</v>
       </c>
       <c r="E5">
-        <v>0.1692</v>
+        <v>0.1692244582043343</v>
       </c>
       <c r="F5">
-        <v>0.0242</v>
+        <v>0.0241749226006192</v>
       </c>
       <c r="G5">
-        <v>0.0362</v>
+        <v>0.03626238390092879</v>
       </c>
       <c r="H5">
-        <v>0.0121</v>
+        <v>0.0120874613003096</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1324,25 +1324,25 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.0049</v>
+        <v>0.004865015479876162</v>
       </c>
       <c r="R5">
-        <v>0.0001</v>
+        <v>0.0001504643962848298</v>
       </c>
       <c r="S5">
-        <v>0.0074</v>
+        <v>0.007372755417956656</v>
       </c>
       <c r="T5">
-        <v>0.1669</v>
+        <v>0.1668700309597523</v>
       </c>
       <c r="U5">
-        <v>0.0238</v>
+        <v>0.02383857585139319</v>
       </c>
       <c r="V5">
-        <v>0.0357</v>
+        <v>0.03575786377708978</v>
       </c>
       <c r="W5">
-        <v>0.0119</v>
+        <v>0.0119192879256966</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.0423</v>
+        <v>0.04230611455108359</v>
       </c>
       <c r="AG5">
-        <v>0.0013</v>
+        <v>0.00130843653250774</v>
       </c>
       <c r="AH5">
-        <v>0.0062</v>
+        <v>0.006168343653250775</v>
       </c>
       <c r="AI5">
-        <v>0.1396</v>
+        <v>0.1396101780185759</v>
       </c>
       <c r="AJ5">
-        <v>0.0199</v>
+        <v>0.01994431114551084</v>
       </c>
       <c r="AK5">
-        <v>0.0299</v>
+        <v>0.02991646671826625</v>
       </c>
       <c r="AL5">
-        <v>0.01</v>
+        <v>0.009972155572755419</v>
       </c>
       <c r="AM5">
         <v>0</v>
@@ -1414,25 +1414,25 @@
         <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.067</v>
+        <v>0.06689396284829723</v>
       </c>
       <c r="AV5">
-        <v>0.002</v>
+        <v>0.002068885448916409</v>
       </c>
       <c r="AW5">
-        <v>0.0054</v>
+        <v>0.005454334365325077</v>
       </c>
       <c r="AX5">
-        <v>0.1235</v>
+        <v>0.1234497678018576</v>
       </c>
       <c r="AY5">
-        <v>0.0177</v>
+        <v>0.01763568111455108</v>
       </c>
       <c r="AZ5">
-        <v>0.0264</v>
+        <v>0.02645352167182662</v>
       </c>
       <c r="BA5">
-        <v>0.008800000000000001</v>
+        <v>0.008817840557275542</v>
       </c>
       <c r="BB5">
         <v>0</v>
@@ -1470,19 +1470,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0076</v>
+        <v>0.007513134851138355</v>
       </c>
       <c r="E6">
-        <v>0.1701</v>
+        <v>0.1700472854640981</v>
       </c>
       <c r="F6">
-        <v>0.0243</v>
+        <v>0.02429246935201401</v>
       </c>
       <c r="G6">
-        <v>0.0364</v>
+        <v>0.03643870402802102</v>
       </c>
       <c r="H6">
-        <v>0.0121</v>
+        <v>0.01214623467600701</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1509,25 +1509,25 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.0049</v>
+        <v>0.004858493870402803</v>
       </c>
       <c r="R6">
-        <v>0.0001</v>
+        <v>0.0001502626970227671</v>
       </c>
       <c r="S6">
-        <v>0.0074</v>
+        <v>0.007362872154115587</v>
       </c>
       <c r="T6">
-        <v>0.1666</v>
+        <v>0.1666463397548161</v>
       </c>
       <c r="U6">
-        <v>0.0238</v>
+        <v>0.02380661996497373</v>
       </c>
       <c r="V6">
-        <v>0.0357</v>
+        <v>0.0357099299474606</v>
       </c>
       <c r="W6">
-        <v>0.0119</v>
+        <v>0.01190330998248687</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -1554,25 +1554,25 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.0425</v>
+        <v>0.04251182136602452</v>
       </c>
       <c r="AG6">
-        <v>0.0013</v>
+        <v>0.001314798598949212</v>
       </c>
       <c r="AH6">
-        <v>0.0062</v>
+        <v>0.006198336252189142</v>
       </c>
       <c r="AI6">
-        <v>0.1403</v>
+        <v>0.1402890105078809</v>
       </c>
       <c r="AJ6">
-        <v>0.02</v>
+        <v>0.02004128721541156</v>
       </c>
       <c r="AK6">
-        <v>0.0301</v>
+        <v>0.03006193082311734</v>
       </c>
       <c r="AL6">
-        <v>0.01</v>
+        <v>0.01002064360770578</v>
       </c>
       <c r="AM6">
         <v>0</v>
@@ -1599,25 +1599,25 @@
         <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.0663</v>
+        <v>0.06633712784588441</v>
       </c>
       <c r="AV6">
-        <v>0.002</v>
+        <v>0.002051663747810858</v>
       </c>
       <c r="AW6">
-        <v>0.0054</v>
+        <v>0.005408931698774079</v>
       </c>
       <c r="AX6">
-        <v>0.1225</v>
+        <v>0.1224221541155867</v>
       </c>
       <c r="AY6">
-        <v>0.0174</v>
+        <v>0.01748887915936952</v>
       </c>
       <c r="AZ6">
-        <v>0.0262</v>
+        <v>0.02623331873905429</v>
       </c>
       <c r="BA6">
-        <v>0.008800000000000001</v>
+        <v>0.008744439579684762</v>
       </c>
       <c r="BB6">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0074</v>
+        <v>0.0075</v>
       </c>
       <c r="E7">
-        <v>0.2061</v>
+        <v>0.206125</v>
       </c>
       <c r="F7">
-        <v>0.0121</v>
+        <v>0.012125</v>
       </c>
       <c r="G7">
-        <v>0.0243</v>
+        <v>0.02425</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1694,22 +1694,22 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.0049</v>
+        <v>0.00485</v>
       </c>
       <c r="R7">
-        <v>0.0001</v>
+        <v>0.00015</v>
       </c>
       <c r="S7">
-        <v>0.0073</v>
+        <v>0.007349999999999998</v>
       </c>
       <c r="T7">
-        <v>0.2021</v>
+        <v>0.2020025</v>
       </c>
       <c r="U7">
-        <v>0.0119</v>
+        <v>0.0118825</v>
       </c>
       <c r="V7">
-        <v>0.0237</v>
+        <v>0.02376499999999999</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -1739,22 +1739,22 @@
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>0.0424</v>
+        <v>0.0424375</v>
       </c>
       <c r="AG7">
-        <v>0.0014</v>
+        <v>0.0013125</v>
       </c>
       <c r="AH7">
-        <v>0.0061</v>
+        <v>0.006187500000000001</v>
       </c>
       <c r="AI7">
-        <v>0.1701</v>
+        <v>0.170053125</v>
       </c>
       <c r="AJ7">
-        <v>0.01</v>
+        <v>0.010003125</v>
       </c>
       <c r="AK7">
-        <v>0.02</v>
+        <v>0.02000625</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -1784,22 +1784,22 @@
         <v>0</v>
       </c>
       <c r="AU7">
-        <v>0.0667</v>
+        <v>0.0666875</v>
       </c>
       <c r="AV7">
-        <v>0.0021</v>
+        <v>0.0020625</v>
       </c>
       <c r="AW7">
-        <v>0.0055</v>
+        <v>0.0054375</v>
       </c>
       <c r="AX7">
-        <v>0.1494</v>
+        <v>0.149440625</v>
       </c>
       <c r="AY7">
-        <v>0.008800000000000001</v>
+        <v>0.008790625</v>
       </c>
       <c r="AZ7">
-        <v>0.0176</v>
+        <v>0.01758125</v>
       </c>
       <c r="BA7">
         <v>0</v>
@@ -1840,19 +1840,19 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0076</v>
+        <v>0.007497722441542668</v>
       </c>
       <c r="E8">
-        <v>0.0606</v>
+        <v>0.06060658973580323</v>
       </c>
       <c r="F8">
-        <v>0.0606</v>
+        <v>0.06060658973580323</v>
       </c>
       <c r="G8">
-        <v>0.0727</v>
+        <v>0.07272790768296387</v>
       </c>
       <c r="H8">
-        <v>0.0485</v>
+        <v>0.04848527178864259</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1879,25 +1879,25 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.0049</v>
+        <v>0.004854418463407228</v>
       </c>
       <c r="R8">
-        <v>0.0002</v>
+        <v>0.00015013665350744</v>
       </c>
       <c r="S8">
-        <v>0.0073</v>
+        <v>0.007356696021864559</v>
       </c>
       <c r="T8">
-        <v>0.0595</v>
+        <v>0.05946662617673854</v>
       </c>
       <c r="U8">
-        <v>0.0595</v>
+        <v>0.05946662617673854</v>
       </c>
       <c r="V8">
-        <v>0.0713</v>
+        <v>0.07135995141208624</v>
       </c>
       <c r="W8">
-        <v>0.0476</v>
+        <v>0.04757330094139083</v>
       </c>
       <c r="X8">
         <v>0</v>
@@ -1924,25 +1924,25 @@
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>0.0424</v>
+        <v>0.04242461281506224</v>
       </c>
       <c r="AG8">
-        <v>0.0013</v>
+        <v>0.001312101427269966</v>
       </c>
       <c r="AH8">
-        <v>0.0062</v>
+        <v>0.0061856210142727</v>
       </c>
       <c r="AI8">
-        <v>0.05</v>
+        <v>0.05000043653203766</v>
       </c>
       <c r="AJ8">
-        <v>0.05</v>
+        <v>0.05000043653203766</v>
       </c>
       <c r="AK8">
-        <v>0.06</v>
+        <v>0.06000052383844519</v>
       </c>
       <c r="AL8">
-        <v>0.04</v>
+        <v>0.04000034922563013</v>
       </c>
       <c r="AM8">
         <v>0</v>
@@ -1969,25 +1969,25 @@
         <v>0</v>
       </c>
       <c r="AU8">
-        <v>0.0667</v>
+        <v>0.06666724870938354</v>
       </c>
       <c r="AV8">
-        <v>0.002</v>
+        <v>0.002061873671424234</v>
       </c>
       <c r="AW8">
-        <v>0.0054</v>
+        <v>0.005435848770118433</v>
       </c>
       <c r="AX8">
-        <v>0.0439</v>
+        <v>0.04393977755845733</v>
       </c>
       <c r="AY8">
-        <v>0.0439</v>
+        <v>0.04393977755845733</v>
       </c>
       <c r="AZ8">
-        <v>0.0528</v>
+        <v>0.0527277330701488</v>
       </c>
       <c r="BA8">
-        <v>0.0351</v>
+        <v>0.03515182204676587</v>
       </c>
       <c r="BB8">
         <v>0</v>
@@ -2025,19 +2025,19 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0075</v>
+        <v>0.007481840193704599</v>
       </c>
       <c r="E9">
-        <v>0.1209</v>
+        <v>0.120956416464891</v>
       </c>
       <c r="F9">
-        <v>0.0483</v>
+        <v>0.04838256658595641</v>
       </c>
       <c r="G9">
-        <v>0.0605</v>
+        <v>0.06047820823244551</v>
       </c>
       <c r="H9">
-        <v>0.0122</v>
+        <v>0.0120956416464891</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2064,25 +2064,25 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.0049</v>
+        <v>0.004861743341404359</v>
       </c>
       <c r="R9">
-        <v>0.0001</v>
+        <v>0.000150363196125908</v>
       </c>
       <c r="S9">
-        <v>0.0074</v>
+        <v>0.007367796610169492</v>
       </c>
       <c r="T9">
-        <v>0.1192</v>
+        <v>0.1191127118644068</v>
       </c>
       <c r="U9">
-        <v>0.0476</v>
+        <v>0.04764508474576271</v>
       </c>
       <c r="V9">
-        <v>0.0595</v>
+        <v>0.05955635593220339</v>
       </c>
       <c r="W9">
-        <v>0.0119</v>
+        <v>0.01191127118644068</v>
       </c>
       <c r="X9">
         <v>0</v>
@@ -2109,25 +2109,25 @@
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>0.0423</v>
+        <v>0.04233474576271186</v>
       </c>
       <c r="AG9">
-        <v>0.0013</v>
+        <v>0.001309322033898305</v>
       </c>
       <c r="AH9">
-        <v>0.0062</v>
+        <v>0.006172518159806296</v>
       </c>
       <c r="AI9">
-        <v>0.0998</v>
+        <v>0.09978904358353512</v>
       </c>
       <c r="AJ9">
-        <v>0.0399</v>
+        <v>0.03991561743341405</v>
       </c>
       <c r="AK9">
-        <v>0.0499</v>
+        <v>0.04989452179176756</v>
       </c>
       <c r="AL9">
-        <v>0.01</v>
+        <v>0.009978904358353512</v>
       </c>
       <c r="AM9">
         <v>0</v>
@@ -2154,25 +2154,25 @@
         <v>0</v>
       </c>
       <c r="AU9">
-        <v>0.0668</v>
+        <v>0.06684897094430993</v>
       </c>
       <c r="AV9">
-        <v>0.0021</v>
+        <v>0.002067493946731235</v>
       </c>
       <c r="AW9">
-        <v>0.0055</v>
+        <v>0.005450665859564164</v>
       </c>
       <c r="AX9">
-        <v>0.0882</v>
+        <v>0.08811909806295398</v>
       </c>
       <c r="AY9">
-        <v>0.0353</v>
+        <v>0.03524763922518159</v>
       </c>
       <c r="AZ9">
-        <v>0.044</v>
+        <v>0.04405954903147699</v>
       </c>
       <c r="BA9">
-        <v>0.008800000000000001</v>
+        <v>0.008811909806295398</v>
       </c>
       <c r="BB9">
         <v>0</v>
@@ -2210,16 +2210,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0076</v>
+        <v>0.00754335260115607</v>
       </c>
       <c r="E10">
-        <v>0.2073</v>
+        <v>0.2073164739884393</v>
       </c>
       <c r="F10">
-        <v>0.0121</v>
+        <v>0.01219508670520231</v>
       </c>
       <c r="G10">
-        <v>0.0244</v>
+        <v>0.02439017341040462</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -2249,22 +2249,22 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.0048</v>
+        <v>0.004821965317919074</v>
       </c>
       <c r="R10">
-        <v>0.0001</v>
+        <v>0.0001491329479768786</v>
       </c>
       <c r="S10">
-        <v>0.0073</v>
+        <v>0.00730751445086705</v>
       </c>
       <c r="T10">
-        <v>0.2009</v>
+        <v>0.2008348554913295</v>
       </c>
       <c r="U10">
-        <v>0.0119</v>
+        <v>0.01181381502890173</v>
       </c>
       <c r="V10">
-        <v>0.0236</v>
+        <v>0.02362763005780346</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -2294,22 +2294,22 @@
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>0.0427</v>
+        <v>0.04268280346820809</v>
       </c>
       <c r="AG10">
-        <v>0.0014</v>
+        <v>0.001320086705202312</v>
       </c>
       <c r="AH10">
-        <v>0.0062</v>
+        <v>0.006223265895953758</v>
       </c>
       <c r="AI10">
-        <v>0.171</v>
+        <v>0.1710360910404624</v>
       </c>
       <c r="AJ10">
-        <v>0.0101</v>
+        <v>0.01006094653179191</v>
       </c>
       <c r="AK10">
-        <v>0.0201</v>
+        <v>0.02012189306358382</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -2339,22 +2339,22 @@
         <v>0</v>
       </c>
       <c r="AU10">
-        <v>0.0663</v>
+        <v>0.06630202312138728</v>
       </c>
       <c r="AV10">
-        <v>0.0021</v>
+        <v>0.002050578034682081</v>
       </c>
       <c r="AW10">
-        <v>0.0054</v>
+        <v>0.00540606936416185</v>
       </c>
       <c r="AX10">
-        <v>0.1486</v>
+        <v>0.1485768063583815</v>
       </c>
       <c r="AY10">
-        <v>0.008800000000000001</v>
+        <v>0.008739812138728325</v>
       </c>
       <c r="AZ10">
-        <v>0.0175</v>
+        <v>0.01747962427745665</v>
       </c>
       <c r="BA10">
         <v>0</v>
@@ -2395,16 +2395,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0077</v>
+        <v>0.007741935483870968</v>
       </c>
       <c r="E11">
-        <v>0.2128</v>
+        <v>0.2127741935483871</v>
       </c>
       <c r="F11">
-        <v>0.0126</v>
+        <v>0.01251612903225807</v>
       </c>
       <c r="G11">
-        <v>0.025</v>
+        <v>0.02503225806451613</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -2434,22 +2434,22 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.0047</v>
+        <v>0.004693548387096774</v>
       </c>
       <c r="R11">
-        <v>0.0001</v>
+        <v>0.0001451612903225806</v>
       </c>
       <c r="S11">
-        <v>0.0071</v>
+        <v>0.00711290322580645</v>
       </c>
       <c r="T11">
-        <v>0.1955</v>
+        <v>0.1954862903225807</v>
       </c>
       <c r="U11">
-        <v>0.0115</v>
+        <v>0.01149919354838709</v>
       </c>
       <c r="V11">
-        <v>0.023</v>
+        <v>0.02299838709677419</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -2479,22 +2479,22 @@
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>0.0411</v>
+        <v>0.04106854838709677</v>
       </c>
       <c r="AG11">
-        <v>0.0013</v>
+        <v>0.00127016129032258</v>
       </c>
       <c r="AH11">
-        <v>0.0059</v>
+        <v>0.005987903225806451</v>
       </c>
       <c r="AI11">
-        <v>0.1646</v>
+        <v>0.1645675403225806</v>
       </c>
       <c r="AJ11">
-        <v>0.0097</v>
+        <v>0.009680443548387098</v>
       </c>
       <c r="AK11">
-        <v>0.0194</v>
+        <v>0.0193608870967742</v>
       </c>
       <c r="AL11">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         <v>0</v>
       </c>
       <c r="AU11">
-        <v>0.0689</v>
+        <v>0.06883870967741937</v>
       </c>
       <c r="AV11">
-        <v>0.0022</v>
+        <v>0.002129032258064517</v>
       </c>
       <c r="AW11">
-        <v>0.0056</v>
+        <v>0.005612903225806452</v>
       </c>
       <c r="AX11">
-        <v>0.1542</v>
+        <v>0.1542612903225807</v>
       </c>
       <c r="AY11">
-        <v>0.0091</v>
+        <v>0.009074193548387097</v>
       </c>
       <c r="AZ11">
-        <v>0.0181</v>
+        <v>0.01814838709677419</v>
       </c>
       <c r="BA11">
         <v>0</v>
@@ -2580,16 +2580,16 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.0074</v>
+        <v>0.00740506329113924</v>
       </c>
       <c r="E12">
-        <v>0.2034</v>
+        <v>0.2035158227848101</v>
       </c>
       <c r="F12">
-        <v>0.012</v>
+        <v>0.01197151898734177</v>
       </c>
       <c r="G12">
-        <v>0.024</v>
+        <v>0.02394303797468354</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2619,22 +2619,22 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.0049</v>
+        <v>0.004911392405063292</v>
       </c>
       <c r="R12">
-        <v>0.0001</v>
+        <v>0.0001518987341772152</v>
       </c>
       <c r="S12">
-        <v>0.0074</v>
+        <v>0.007443037974683544</v>
       </c>
       <c r="T12">
-        <v>0.2046</v>
+        <v>0.2045594936708861</v>
       </c>
       <c r="U12">
-        <v>0.012</v>
+        <v>0.01203291139240506</v>
       </c>
       <c r="V12">
-        <v>0.0241</v>
+        <v>0.02406582278481013</v>
       </c>
       <c r="W12">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>0.043</v>
+        <v>0.0429746835443038</v>
       </c>
       <c r="AG12">
-        <v>0.0014</v>
+        <v>0.001329113924050633</v>
       </c>
       <c r="AH12">
-        <v>0.0063</v>
+        <v>0.006265822784810127</v>
       </c>
       <c r="AI12">
-        <v>0.1722</v>
+        <v>0.1722056962025316</v>
       </c>
       <c r="AJ12">
-        <v>0.0101</v>
+        <v>0.01012974683544304</v>
       </c>
       <c r="AK12">
-        <v>0.0202</v>
+        <v>0.02025949367088608</v>
       </c>
       <c r="AL12">
         <v>0</v>
@@ -2709,22 +2709,22 @@
         <v>0</v>
       </c>
       <c r="AU12">
-        <v>0.0659</v>
+        <v>0.06584335443037975</v>
       </c>
       <c r="AV12">
-        <v>0.0021</v>
+        <v>0.002036392405063291</v>
       </c>
       <c r="AW12">
-        <v>0.0054</v>
+        <v>0.00536867088607595</v>
       </c>
       <c r="AX12">
-        <v>0.1475</v>
+        <v>0.1475489715189874</v>
       </c>
       <c r="AY12">
-        <v>0.008699999999999999</v>
+        <v>0.008679351265822786</v>
       </c>
       <c r="AZ12">
-        <v>0.0173</v>
+        <v>0.01735870253164557</v>
       </c>
       <c r="BA12">
         <v>0</v>
@@ -2765,16 +2765,16 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.0076</v>
+        <v>0.007538461538461538</v>
       </c>
       <c r="E13">
-        <v>0.2071</v>
+        <v>0.2071820512820512</v>
       </c>
       <c r="F13">
-        <v>0.0121</v>
+        <v>0.01218717948717949</v>
       </c>
       <c r="G13">
-        <v>0.0244</v>
+        <v>0.02437435897435897</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.0048</v>
+        <v>0.004775384615384615</v>
       </c>
       <c r="R13">
-        <v>0.0001</v>
+        <v>0.0001476923076923077</v>
       </c>
       <c r="S13">
-        <v>0.0072</v>
+        <v>0.007236923076923076</v>
       </c>
       <c r="T13">
-        <v>0.1989</v>
+        <v>0.1988947692307692</v>
       </c>
       <c r="U13">
-        <v>0.0117</v>
+        <v>0.01169969230769231</v>
       </c>
       <c r="V13">
-        <v>0.0234</v>
+        <v>0.02339938461538461</v>
       </c>
       <c r="W13">
         <v>0</v>
@@ -2849,22 +2849,22 @@
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>0.0426</v>
+        <v>0.04265512820512821</v>
       </c>
       <c r="AG13">
-        <v>0.0014</v>
+        <v>0.001319230769230769</v>
       </c>
       <c r="AH13">
-        <v>0.0062</v>
+        <v>0.006219230769230769</v>
       </c>
       <c r="AI13">
-        <v>0.1709</v>
+        <v>0.1709251923076923</v>
       </c>
       <c r="AJ13">
-        <v>0.0101</v>
+        <v>0.01005442307692308</v>
       </c>
       <c r="AK13">
-        <v>0.0201</v>
+        <v>0.02010884615384616</v>
       </c>
       <c r="AL13">
         <v>0</v>
@@ -2894,22 +2894,22 @@
         <v>0</v>
       </c>
       <c r="AU13">
-        <v>0.067</v>
+        <v>0.06702948717948717</v>
       </c>
       <c r="AV13">
-        <v>0.0021</v>
+        <v>0.002073076923076923</v>
       </c>
       <c r="AW13">
-        <v>0.0055</v>
+        <v>0.005465384615384615</v>
       </c>
       <c r="AX13">
-        <v>0.1502</v>
+        <v>0.1502069871794872</v>
       </c>
       <c r="AY13">
-        <v>0.0089</v>
+        <v>0.008835705128205128</v>
       </c>
       <c r="AZ13">
-        <v>0.0176</v>
+        <v>0.01767141025641026</v>
       </c>
       <c r="BA13">
         <v>0</v>
